--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/predh-uncommon.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/predh/predh-uncommon.xlsx
@@ -25,8 +25,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/2
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -34,42 +33,39 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">When this creature enters, you may exile target artifact or enchantment.
-When this creature leaves the battlefield, return the exiled card to the battlefield under its owner's control.</t>
+          <t>Creatures can't attack you unless their controller pays {2} for each creature they control that's attacking you.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t>➤ 2 white</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 0/4
+          <t xml:space="preserve">P/T: 2/2
 Border: black
-Finish: normal
-Keywords:
-➤ Defender</t>
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Defender
-When this creature enters, draw a card.</t>
+          <t xml:space="preserve">When this creature enters, you may exile target artifact or enchantment.
+When this creature leaves the battlefield, return the exiled card to the battlefield under its owner's control.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 white</t>
+          <t>➤ 2 white</t>
         </r>
       </text>
     </comment>
@@ -84,7 +80,8 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>Creatures can't attack you unless their controller pays {2} for each creature they control that's attacking you.</t>
+          <t xml:space="preserve">When this enchantment enters, exile another target nonland permanent.
+When this enchantment leaves the battlefield, return the exiled card to the battlefield under its owner's control.</t>
         </r>
       </text>
     </comment>
@@ -99,23 +96,26 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">P/T: 0/4
+Border: black
+Finish: normal
+Keywords:
+➤ Defender</t>
         </r>
       </text>
     </comment>
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">When this enchantment enters, exile another target nonland permanent.
-When this enchantment leaves the battlefield, return the exiled card to the battlefield under its owner's control.</t>
+          <t xml:space="preserve">Defender
+When this creature enters, draw a card.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 white</t>
         </r>
       </text>
@@ -133,27 +133,25 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 3/3
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal
 Keywords:
-➤ Imprint</t>
+➤ Rebound</t>
         </r>
       </text>
     </comment>
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Imprint — When this creature enters, you may exile target nontoken creature.
-This creature gets +X/+Y, where X is the exiled creature card's power and Y is its toughness.</t>
+          <t xml:space="preserve">Target creature gets +1/+0 until end of turn and can't be blocked this turn.
+Rebound (If you cast this spell from your hand, exile it as it resolves. At the beginning of your next upkeep, you may cast this card from exile without paying its mana cost.)</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 6 generic
-➤ 1 blue</t>
+          <t>➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -206,22 +204,27 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">P/T: 3/3
+Border: black
+Finish: normal
+Keywords:
+➤ Imprint</t>
         </r>
       </text>
     </comment>
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>Destroy target creature. It can't be regenerated. Its controller creates a 3/3 green Ape creature token.</t>
+          <t xml:space="preserve">Imprint — When this creature enters, you may exile target nontoken creature.
+This creature gets +X/+Y, where X is the exiled creature card's power and Y is its toughness.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t>➤ 1 blue</t>
+          <t xml:space="preserve">➤ 6 generic
+➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -229,17 +232,14 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
-Finish: normal
-Keywords:
-➤ Rebound</t>
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Target creature gets +1/+0 until end of turn and can't be blocked this turn.
-Rebound (If you cast this spell from your hand, exile it as it resolves. At the beginning of your next upkeep, you may cast this card from exile without paying its mana cost.)</t>
+          <t>Destroy target creature. It can't be regenerated. Its controller creates a 3/3 green Ape creature token.</t>
         </r>
       </text>
     </comment>
@@ -263,6 +263,28 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>Choose a card name. Exile the top six cards of your library, then reveal cards from the top of your library until you reveal a card with the chosen name. Put that card into your hand and exile all other cards revealed this way.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t>➤ 1 black</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 2/5
 Border: black
 Finish: normal
@@ -271,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)
@@ -279,33 +301,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 4 generic
 ➤ 1 black</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>Choose a card name. Exile the top six cards of your library, then reveal cards from the top of your library until you reveal a card with the chosen name. Put that card into your hand and exile all other cards revealed this way.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t>➤ 1 black</t>
         </r>
       </text>
     </comment>
@@ -420,7 +420,8 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 2/2
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -428,24 +429,22 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>{T}: Untap another target permanent.</t>
+          <t xml:space="preserve">{4}{B}, Sacrifice a creature: Return target creature card from your graveyard to your hand.
+{4}{G}: Put a +1/+1 counter on target creature.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 1 white
-➤ 1 blue</t>
+          <t>➤ 2× black or green</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/2
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -453,15 +452,16 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{4}{B}, Sacrifice a creature: Return target creature card from your graveyard to your hand.
-{4}{G}: Put a +1/+1 counter on target creature.</t>
+          <t>{T}: Untap another target permanent.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t>➤ 2× black or green</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 white
+➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -500,22 +500,27 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">P/T: 2/2
+Border: black
+Finish: normal
+Keywords:
+➤ Proliferate
+➤ Infect</t>
         </r>
       </text>
     </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>{1}, {T}: Add {U}{B}.</t>
+          <t xml:space="preserve">Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)
+When this creature dies, proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t>➤ 2 generic</t>
+          <t>➤ 4 generic</t>
         </r>
       </text>
     </comment>
@@ -530,7 +535,7 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>{1}, {T}: Add {B}{G}.</t>
+          <t>{1}, {T}: Add {U}{B}.</t>
         </r>
       </text>
     </comment>
@@ -552,41 +557,36 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>{T}, Sacrifice this artifact: Look at the top card of target player's library. Draw a card at the beginning of the next turn's upkeep.</t>
+          <t>{1}, {T}: Add {B}{G}.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t>➤ 0 generic</t>
+          <t>➤ 2 generic</t>
         </r>
       </text>
     </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/2
-Border: black
-Finish: normal
-Keywords:
-➤ Proliferate
-➤ Infect</t>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)
-When this creature dies, proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
+          <t>{T}, Sacrifice this artifact: Look at the top card of target player's library. Draw a card at the beginning of the next turn's upkeep.</t>
         </r>
       </text>
     </comment>
     <comment ref="I7" authorId="0">
       <text>
         <r>
-          <t>➤ 4 generic</t>
+          <t>➤ 0 generic</t>
         </r>
       </text>
     </comment>
@@ -709,10 +709,37 @@
     <t>Scryfall Link</t>
   </si>
   <si>
-    <t>Leonin Relic-Warder</t>
+    <t>Ghostly Prison</t>
   </si>
   <si>
     <t>predh</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>tdc</t>
+  </si>
+  <si>
+    <t>Tarkir: Dragonstorm Commander</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>{2}{W}</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>Open Ghostly Prison</t>
+  </si>
+  <si>
+    <t>Leonin Relic-Warder</t>
   </si>
   <si>
     <t>Creature</t>
@@ -733,13 +760,28 @@
     <t>{W}{W}</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>0.34</t>
   </si>
   <si>
     <t>Open Leonin Relic-Warder</t>
+  </si>
+  <si>
+    <t>Oblivion Ring</t>
+  </si>
+  <si>
+    <t>mm2</t>
+  </si>
+  <si>
+    <t>Modern Masters 2015</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>Open Oblivion Ring</t>
   </si>
   <si>
     <t>Wall of Omens</t>
@@ -766,76 +808,34 @@
     <t>Open Wall of Omens</t>
   </si>
   <si>
-    <t>Ghostly Prison</t>
-  </si>
-  <si>
-    <t>Enchantment</t>
-  </si>
-  <si>
-    <t>tdc</t>
-  </si>
-  <si>
-    <t>Tarkir: Dragonstorm Commander</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>{2}{W}</t>
-  </si>
-  <si>
-    <t>5.81</t>
-  </si>
-  <si>
-    <t>Open Ghostly Prison</t>
-  </si>
-  <si>
-    <t>Oblivion Ring</t>
-  </si>
-  <si>
-    <t>mm2</t>
-  </si>
-  <si>
-    <t>Modern Masters 2015</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>Open Oblivion Ring</t>
-  </si>
-  <si>
     <t>Predh (Uncommon) - Blue</t>
   </si>
   <si>
-    <t>Phyrexian Ingester</t>
+    <t>Distortion Strike</t>
   </si>
   <si>
-    <t>Creature — Phyrexian Beast</t>
+    <t>Sorcery</t>
   </si>
   <si>
-    <t>cmm</t>
+    <t>ima</t>
   </si>
   <si>
-    <t>Commander Masters</t>
+    <t>Iconic Masters</t>
   </si>
   <si>
-    <t>111</t>
+    <t>52</t>
   </si>
   <si>
-    <t>{6}{U}</t>
+    <t>{U}</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>0.11</t>
+    <t>0.54</t>
   </si>
   <si>
-    <t>Open Phyrexian Ingester</t>
+    <t>Open Distortion Strike</t>
   </si>
   <si>
     <t>Essence Scatter</t>
@@ -883,6 +883,30 @@
     <t>Open Mental Misstep</t>
   </si>
   <si>
+    <t>Phyrexian Ingester</t>
+  </si>
+  <si>
+    <t>Creature — Phyrexian Beast</t>
+  </si>
+  <si>
+    <t>cmm</t>
+  </si>
+  <si>
+    <t>Commander Masters</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>{6}{U}</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Open Phyrexian Ingester</t>
+  </si>
+  <si>
     <t>Pongify</t>
   </si>
   <si>
@@ -895,58 +919,13 @@
     <t>190</t>
   </si>
   <si>
-    <t>{U}</t>
-  </si>
-  <si>
     <t>1.82</t>
   </si>
   <si>
     <t>Open Pongify</t>
   </si>
   <si>
-    <t>Distortion Strike</t>
-  </si>
-  <si>
-    <t>Sorcery</t>
-  </si>
-  <si>
-    <t>ima</t>
-  </si>
-  <si>
-    <t>Iconic Masters</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>Open Distortion Strike</t>
-  </si>
-  <si>
     <t>Predh (Uncommon) - Black</t>
-  </si>
-  <si>
-    <t>Reaper of Sheoldred</t>
-  </si>
-  <si>
-    <t>Creature — Phyrexian Horror</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>{4}{B}</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>Open Reaper of Sheoldred</t>
   </si>
   <si>
     <t>Demonic Consultation</t>
@@ -964,10 +943,31 @@
     <t>{B}</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>9.84</t>
   </si>
   <si>
     <t>Open Demonic Consultation</t>
+  </si>
+  <si>
+    <t>Reaper of Sheoldred</t>
+  </si>
+  <si>
+    <t>Creature — Phyrexian Horror</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>{4}{B}</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>Open Reaper of Sheoldred</t>
   </si>
   <si>
     <t>Predh (Uncommon) - Green</t>
@@ -1045,6 +1045,33 @@
     <t>Predh (Uncommon) - Multicolor</t>
   </si>
   <si>
+    <t>Golgari Guildmage</t>
+  </si>
+  <si>
+    <t>Creature — Elf Shaman</t>
+  </si>
+  <si>
+    <t>clu</t>
+  </si>
+  <si>
+    <t>Ravnica: Clue Edition</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>{B/G}{B/G}</t>
+  </si>
+  <si>
+    <t>B, G</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Open Golgari Guildmage</t>
+  </si>
+  <si>
     <t>Unbender Tine</t>
   </si>
   <si>
@@ -1072,33 +1099,6 @@
     <t>Open Unbender Tine</t>
   </si>
   <si>
-    <t>Golgari Guildmage</t>
-  </si>
-  <si>
-    <t>Creature — Elf Shaman</t>
-  </si>
-  <si>
-    <t>clu</t>
-  </si>
-  <si>
-    <t>Ravnica: Clue Edition</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>{B/G}{B/G}</t>
-  </si>
-  <si>
-    <t>B, G</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>Open Golgari Guildmage</t>
-  </si>
-  <si>
     <t>Predh (Uncommon) - Artifact (Colorless)</t>
   </si>
   <si>
@@ -1124,6 +1124,33 @@
   </si>
   <si>
     <t>Open Azorius Signet</t>
+  </si>
+  <si>
+    <t>Core Prowler</t>
+  </si>
+  <si>
+    <t>Artifact - Creature</t>
+  </si>
+  <si>
+    <t>Artifact Creature — Phyrexian Horror</t>
+  </si>
+  <si>
+    <t>mbs</t>
+  </si>
+  <si>
+    <t>Mirrodin Besieged</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>{4}</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>Open Core Prowler</t>
   </si>
   <si>
     <t>Dimir Signet</t>
@@ -1178,33 +1205,6 @@
   </si>
   <si>
     <t>Open Mishra's Bauble</t>
-  </si>
-  <si>
-    <t>Core Prowler</t>
-  </si>
-  <si>
-    <t>Artifact - Creature</t>
-  </si>
-  <si>
-    <t>Artifact Creature — Phyrexian Horror</t>
-  </si>
-  <si>
-    <t>mbs</t>
-  </si>
-  <si>
-    <t>Mirrodin Besieged</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>{4}</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>Open Core Prowler</t>
   </si>
   <si>
     <t>Whispersilk Cloak</t>
@@ -1313,7 +1313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1345,39 +1345,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,34 +1374,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,39 +1823,39 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1916,7 +1864,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>27</v>
@@ -1937,10 +1885,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>32</v>
@@ -1950,90 +1898,90 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="N5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="11">
-        <v>3</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="13">
-        <v>3</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5349,7 +5297,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>50</v>
@@ -5367,7 +5315,7 @@
         <v>54</v>
       </c>
       <c r="J3" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>55</v>
@@ -5383,46 +5331,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="9">
         <v>2</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5481,25 +5429,25 @@
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>55</v>
@@ -5508,53 +5456,53 @@
         <v>55</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8865,86 +8813,86 @@
         <v>88</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="H4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="11">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="K4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="19">
-        <v>4</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="19">
-        <v>1</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="L4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -12258,7 +12206,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>104</v>
@@ -12302,7 +12250,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>113</v>
@@ -12336,46 +12284,46 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="F5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="13">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -15690,7 +15638,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>128</v>
@@ -15708,7 +15656,7 @@
         <v>132</v>
       </c>
       <c r="J3" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>133</v>
@@ -15724,46 +15672,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="19">
-        <v>2</v>
-      </c>
-      <c r="K4" s="19" t="s">
+      <c r="J4" s="11">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -19078,10 +19026,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>147</v>
@@ -19102,7 +19050,7 @@
         <v>151</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>152</v>
@@ -19122,42 +19070,42 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J4" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>151</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -19166,19 +19114,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>150</v>
@@ -19190,18 +19138,18 @@
         <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -19210,124 +19158,124 @@
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>151</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="L7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="11">
-        <v>4</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="H8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" s="19">
-        <v>3</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="11" t="s">
         <v>187</v>
       </c>
     </row>
@@ -22652,10 +22600,10 @@
         <v>190</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>191</v>
@@ -22680,46 +22628,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="11" t="s">
         <v>199</v>
       </c>
     </row>
